--- a/Evaluation result/3 times Crash pairwise comparison.xlsx
+++ b/Evaluation result/3 times Crash pairwise comparison.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\drindroid-github\DinoDroid\Evaluation result\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\android-rf\figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F91AF3D-E3E2-4ED6-976C-FEDF6246A15B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BFAFD56-2C84-444E-86FB-871EE717A9EF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OBE" sheetId="1" r:id="rId1"/>
     <sheet name="Monkey" sheetId="4" r:id="rId2"/>
     <sheet name="Stoat" sheetId="2" r:id="rId3"/>
     <sheet name="Sapienz" sheetId="3" r:id="rId4"/>
+    <sheet name="Q-test" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="12">
   <si>
     <t>interNum:</t>
   </si>
@@ -61,6 +62,9 @@
   </si>
   <si>
     <t>MonkeyWinNum:</t>
+  </si>
+  <si>
+    <t>QtestWinNum:</t>
   </si>
 </sst>
 </file>
@@ -559,7 +563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B0AB49B-AC77-4D18-9538-D72516FC6646}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -918,7 +922,7 @@
   <dimension ref="A3:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="G19" sqref="A3:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1090,4 +1094,180 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C45D7AD-A405-475C-AF8C-577C597B88C6}">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>37</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>7</v>
+      </c>
+      <c r="F15" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>36</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>